--- a/2022/Realme/Others/DL INFO 27 January Till.xlsx
+++ b/2022/Realme/Others/DL INFO 27 January Till.xlsx
@@ -629,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
